--- a/clients/static/Reporte_diario.xlsx
+++ b/clients/static/Reporte_diario.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26220"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{602ADB84-9090-4DF1-BAD8-C8E190E826FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E498E59-AAC8-43E2-9F40-88BCA8D29944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>REPORTE GENERAL BASES</t>
   </si>
@@ -114,54 +114,87 @@
     <t>AA</t>
   </si>
   <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
     <t>LUGAR DE SALIDA</t>
   </si>
   <si>
+    <t>CALENDARIO</t>
+  </si>
+  <si>
+    <t>PILOTO</t>
+  </si>
+  <si>
+    <t>MECÁNICO</t>
+  </si>
+  <si>
+    <t>CONDUCTOR</t>
+  </si>
+  <si>
+    <t>AERONAVE MATRICULA</t>
+  </si>
+  <si>
+    <t>HORAS DE VUELO</t>
+  </si>
+  <si>
+    <t>HORAS AERONAVE</t>
+  </si>
+  <si>
+    <t>CICLOS MOTOR</t>
+  </si>
+  <si>
+    <t>CUMPLIMIENTO MTTO</t>
+  </si>
+  <si>
+    <t>COMBUSTIBLE</t>
+  </si>
+  <si>
+    <t>MOTOR 1</t>
+  </si>
+  <si>
+    <t>MOTOR 2</t>
+  </si>
+  <si>
+    <t>NOTA DE OPERACIÓN</t>
+  </si>
+  <si>
+    <t>NOTA DE MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>CARGA EXTERNA</t>
+  </si>
+  <si>
+    <t>CANTIDAD DE ATERRIZAJES</t>
+  </si>
+  <si>
+    <t>CANTIDAD DE AMERIZAJES</t>
+  </si>
+  <si>
+    <t>LANZAMIENTO DE AGUA</t>
+  </si>
+  <si>
     <t>DIA</t>
   </si>
   <si>
-    <t>PILOTO</t>
-  </si>
-  <si>
-    <t>MECÁNICO</t>
-  </si>
-  <si>
-    <t>CONDUCTOR</t>
-  </si>
-  <si>
-    <t>AERONAVE MATRICULA</t>
-  </si>
-  <si>
-    <t>HORAS DE VUELO</t>
-  </si>
-  <si>
-    <t>HORAS AERONAVE</t>
-  </si>
-  <si>
-    <t>CICLOS MOTOR</t>
-  </si>
-  <si>
-    <t>CUMPLIMIENTO MTTO</t>
-  </si>
-  <si>
-    <t>COMBUSTIBLE</t>
-  </si>
-  <si>
-    <t>DINERO</t>
-  </si>
-  <si>
-    <t>KILOMETRAJE</t>
-  </si>
-  <si>
-    <t>MOTOR 1</t>
-  </si>
-  <si>
-    <t>MOTOR2</t>
-  </si>
-  <si>
-    <t>CALENDARIO</t>
-  </si>
-  <si>
     <t>ACUMULADO</t>
   </si>
   <si>
@@ -177,6 +210,15 @@
     <t>HORA DE CORTE</t>
   </si>
   <si>
+    <t>CICLOS</t>
+  </si>
+  <si>
+    <t>PESO</t>
+  </si>
+  <si>
+    <t>CANTIDAD</t>
+  </si>
+  <si>
     <t>TIEMPO</t>
   </si>
   <si>
@@ -189,28 +231,16 @@
     <t>CUMPLE PARA</t>
   </si>
   <si>
-    <t>ESTANQUE</t>
-  </si>
-  <si>
-    <t>CAMIÓN</t>
-  </si>
-  <si>
-    <t>OPERACIÓN</t>
-  </si>
-  <si>
-    <t>MANTTO</t>
-  </si>
-  <si>
-    <t>CAMIONETA</t>
+    <t>DESPEGUE</t>
+  </si>
+  <si>
+    <t>ATERRIZAJE</t>
+  </si>
+  <si>
+    <t>TOTAL VUELO</t>
   </si>
   <si>
     <t>(hh:mm)</t>
-  </si>
-  <si>
-    <t>CHOFER</t>
-  </si>
-  <si>
-    <t>MECANICO</t>
   </si>
 </sst>
 </file>
@@ -260,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -269,64 +299,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -368,39 +343,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -408,152 +350,38 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -875,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AB12"/>
+  <dimension ref="A2:AG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG5" sqref="A3:AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -902,334 +730,387 @@
     <col min="19" max="19" width="11.85546875" customWidth="1"/>
     <col min="20" max="20" width="17.28515625" customWidth="1"/>
     <col min="21" max="21" width="14.140625" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" customWidth="1"/>
     <col min="23" max="23" width="14.7109375" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" customWidth="1"/>
-    <col min="25" max="25" width="13.5703125" customWidth="1"/>
-    <col min="26" max="26" width="13.7109375" customWidth="1"/>
-    <col min="27" max="27" width="16.28515625" customWidth="1"/>
-    <col min="28" max="28" width="13" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" customWidth="1"/>
+    <col min="25" max="25" width="22.140625" customWidth="1"/>
+    <col min="26" max="26" width="24.42578125" customWidth="1"/>
+    <col min="27" max="27" width="13" customWidth="1"/>
+    <col min="28" max="28" width="15.85546875" customWidth="1"/>
+    <col min="29" max="29" width="15.28515625" customWidth="1"/>
+    <col min="30" max="30" width="12" customWidth="1"/>
+    <col min="31" max="31" width="12.42578125" customWidth="1"/>
+    <col min="32" max="32" width="16" customWidth="1"/>
+    <col min="33" max="33" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="5" t="s">
+    <row r="2" spans="1:33">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:28">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:33">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="K3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="L3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="35" t="s">
+      <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="35" t="s">
+      <c r="O3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="35" t="s">
+      <c r="P3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="35" t="s">
+      <c r="Q3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="35" t="s">
+      <c r="R3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="35" t="s">
+      <c r="S3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="35" t="s">
+      <c r="T3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="35" t="s">
+      <c r="U3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="35" t="s">
+      <c r="V3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="35" t="s">
+      <c r="W3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y3" s="35" t="s">
+      <c r="X3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z3" s="35" t="s">
+      <c r="Y3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA3" s="35" t="s">
+      <c r="Z3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="35" t="s">
+      <c r="AA3" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="AB3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" ht="15" customHeight="1">
-      <c r="A4" s="23" t="s">
-        <v>28</v>
+    <row r="4" spans="1:33" ht="15" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="15" t="s">
+      <c r="E4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="15" t="s">
+      <c r="F4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="17"/>
-      <c r="T4" s="15" t="s">
+      <c r="G4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="16"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="15" t="s">
+      <c r="H4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="29" t="s">
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="29" t="s">
+      <c r="N4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AB4" s="30"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG4" s="8"/>
     </row>
-    <row r="5" spans="1:28" ht="15" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z5" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB5" s="31" t="s">
-        <v>48</v>
+    <row r="5" spans="1:33">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG5" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="28"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q6" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="R6" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="S6" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="T6" s="21" t="s">
+    <row r="6" spans="1:33">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="U6" s="22"/>
-      <c r="V6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="X6" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
+      <c r="J6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
     </row>
-    <row r="7" spans="1:28">
-      <c r="A7" s="24"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="V7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="W7" s="38"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
+    <row r="7" spans="1:33">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:33">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1241,56 +1122,71 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="43"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
     </row>
-    <row r="12" spans="1:28">
-      <c r="D12" s="6"/>
+    <row r="12" spans="1:33">
+      <c r="D12" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="37">
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="Y5:Y7"/>
-    <mergeCell ref="Z5:Z7"/>
-    <mergeCell ref="AA5:AA7"/>
-    <mergeCell ref="AB5:AB7"/>
     <mergeCell ref="N4:N7"/>
-    <mergeCell ref="W4:X5"/>
     <mergeCell ref="P4:Q5"/>
-    <mergeCell ref="R4:S5"/>
     <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T4:V5"/>
-    <mergeCell ref="T6:U6"/>
     <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="M4:M7"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="H4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="R4:T5"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="AD4:AD7"/>
+    <mergeCell ref="AE4:AE7"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AB5:AB7"/>
+    <mergeCell ref="AC5:AC7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/clients/static/Reporte_diario.xlsx
+++ b/clients/static/Reporte_diario.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26330"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E498E59-AAC8-43E2-9F40-88BCA8D29944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35B2B3C7-57AB-4037-8206-25331ABEC629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>REPORTE GENERAL BASES</t>
   </si>
@@ -132,6 +132,12 @@
     <t>AG</t>
   </si>
   <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
     <t>LUGAR DE SALIDA</t>
   </si>
   <si>
@@ -208,6 +214,9 @@
   </si>
   <si>
     <t>HORA DE CORTE</t>
+  </si>
+  <si>
+    <t>TOTAL ENCENDIDO</t>
   </si>
   <si>
     <t>CICLOS</t>
@@ -290,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -350,11 +359,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -369,20 +437,80 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AG12"/>
+  <dimension ref="A2:AI12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG5" sqref="A3:AG7"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -729,22 +857,24 @@
     <col min="18" max="18" width="10.85546875" customWidth="1"/>
     <col min="19" max="19" width="11.85546875" customWidth="1"/>
     <col min="20" max="20" width="17.28515625" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" customWidth="1"/>
-    <col min="22" max="22" width="13.85546875" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" customWidth="1"/>
-    <col min="24" max="24" width="13.5703125" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" customWidth="1"/>
+    <col min="22" max="22" width="21.28515625" customWidth="1"/>
+    <col min="23" max="23" width="21.42578125" customWidth="1"/>
+    <col min="24" max="24" width="20" customWidth="1"/>
     <col min="25" max="25" width="22.140625" customWidth="1"/>
     <col min="26" max="26" width="24.42578125" customWidth="1"/>
-    <col min="27" max="27" width="13" customWidth="1"/>
-    <col min="28" max="28" width="15.85546875" customWidth="1"/>
+    <col min="27" max="27" width="33" customWidth="1"/>
+    <col min="28" max="28" width="34" customWidth="1"/>
     <col min="29" max="29" width="15.28515625" customWidth="1"/>
     <col min="30" max="30" width="12" customWidth="1"/>
     <col min="31" max="31" width="12.42578125" customWidth="1"/>
     <col min="32" max="32" width="16" customWidth="1"/>
     <col min="33" max="33" width="15.85546875" customWidth="1"/>
+    <col min="34" max="34" width="14.85546875" customWidth="1"/>
+    <col min="35" max="35" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:35">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -755,10 +885,10 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="12"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
@@ -780,8 +910,10 @@
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -869,248 +1001,266 @@
       <c r="AC3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AD3" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AE3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AF3" s="27" t="s">
         <v>32</v>
       </c>
       <c r="AG3" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="AH3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" ht="15" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="9"/>
+    <row r="4" spans="1:35">
+      <c r="A4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="11"/>
       <c r="D4" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>42</v>
+      <c r="M4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="O4" s="1"/>
-      <c r="P4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9" t="s">
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="8" t="s">
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="V4" s="28"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="AA4" s="8" t="s">
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AB4" s="8" t="s">
+      <c r="AB4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8" t="s">
+      <c r="AC4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AE4" s="8" t="s">
+      <c r="AD4" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="AF4" s="8" t="s">
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AG4" s="8"/>
+      <c r="AG4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH4" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI4" s="17"/>
     </row>
-    <row r="5" spans="1:33">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>55</v>
+    <row r="5" spans="1:35" ht="30.75" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="8"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L5" s="10"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="W5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8" t="s">
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AC5" s="8" t="s">
+      <c r="V5" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8" t="s">
+      <c r="W5" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="X5" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AG5" s="8" t="s">
+      <c r="Y5" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z5" s="29" t="s">
         <v>62</v>
       </c>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE5" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI5" s="18" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="6" spans="1:33">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="11"/>
+    <row r="6" spans="1:35">
+      <c r="A6" s="9"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="8"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
+        <v>67</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="S6" s="8" t="s">
+      <c r="P6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="Q6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
+      <c r="R6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
     </row>
-    <row r="7" spans="1:33">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="11"/>
+    <row r="7" spans="1:35">
+      <c r="A7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="8"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="8"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1140,19 +1290,40 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
-      <c r="AD8" s="6"/>
+      <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
+      <c r="AF8" s="6"/>
       <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:35">
       <c r="D12" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
+  <mergeCells count="35">
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="Z5:Z7"/>
+    <mergeCell ref="AF4:AF7"/>
+    <mergeCell ref="AG4:AG7"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="Y5:Y7"/>
+    <mergeCell ref="AC4:AC7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="R4:T5"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="N4:N7"/>
@@ -1166,27 +1337,6 @@
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="R4:T5"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="AD4:AD7"/>
-    <mergeCell ref="AE4:AE7"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AB5:AB7"/>
-    <mergeCell ref="AC5:AC7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/clients/static/Reporte_diario.xlsx
+++ b/clients/static/Reporte_diario.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26330"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35B2B3C7-57AB-4037-8206-25331ABEC629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBE91522-F074-436F-9268-0F3242367363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
   <si>
     <t>REPORTE GENERAL BASES</t>
   </si>
@@ -135,12 +135,12 @@
     <t>AH</t>
   </si>
   <si>
-    <t>AI</t>
-  </si>
-  <si>
     <t>LUGAR DE SALIDA</t>
   </si>
   <si>
+    <t>AERODROMO</t>
+  </si>
+  <si>
     <t>CALENDARIO</t>
   </si>
   <si>
@@ -198,18 +198,36 @@
     <t>LANZAMIENTO DE AGUA</t>
   </si>
   <si>
+    <t>SALIDA</t>
+  </si>
+  <si>
+    <t>LLEGADA</t>
+  </si>
+  <si>
     <t>DIA</t>
   </si>
   <si>
-    <t>ACUMULADO</t>
-  </si>
-  <si>
     <t>CONTRATO</t>
   </si>
   <si>
     <t>MANTTO Y OTROS</t>
   </si>
   <si>
+    <t>HORAS DISPONIBLES</t>
+  </si>
+  <si>
+    <t>CUMPLE PROXIMA INSPECCIÓN</t>
+  </si>
+  <si>
+    <t>DESPEGUE</t>
+  </si>
+  <si>
+    <t>ATERRIZAJE</t>
+  </si>
+  <si>
+    <t>TOTAL VUELO</t>
+  </si>
+  <si>
     <t>HORA ENCENDIDO</t>
   </si>
   <si>
@@ -232,21 +250,6 @@
   </si>
   <si>
     <t>MOTIVO</t>
-  </si>
-  <si>
-    <t>HORAS DISPONIBLES</t>
-  </si>
-  <si>
-    <t>CUMPLE PARA</t>
-  </si>
-  <si>
-    <t>DESPEGUE</t>
-  </si>
-  <si>
-    <t>ATERRIZAJE</t>
-  </si>
-  <si>
-    <t>TOTAL VUELO</t>
   </si>
   <si>
     <t>(hh:mm)</t>
@@ -299,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -407,22 +410,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -440,77 +432,64 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AI12"/>
+  <dimension ref="A2:AH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -843,38 +822,39 @@
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="23.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" customWidth="1"/>
+    <col min="16" max="16" width="21" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" customWidth="1"/>
+    <col min="18" max="19" width="15.5703125" customWidth="1"/>
     <col min="20" max="20" width="17.28515625" customWidth="1"/>
     <col min="21" max="21" width="18.42578125" customWidth="1"/>
     <col min="22" max="22" width="21.28515625" customWidth="1"/>
     <col min="23" max="23" width="21.42578125" customWidth="1"/>
     <col min="24" max="24" width="20" customWidth="1"/>
     <col min="25" max="25" width="22.140625" customWidth="1"/>
-    <col min="26" max="26" width="24.42578125" customWidth="1"/>
+    <col min="26" max="26" width="32.42578125" customWidth="1"/>
     <col min="27" max="27" width="33" customWidth="1"/>
-    <col min="28" max="28" width="34" customWidth="1"/>
+    <col min="28" max="28" width="30.7109375" customWidth="1"/>
     <col min="29" max="29" width="15.28515625" customWidth="1"/>
-    <col min="30" max="30" width="12" customWidth="1"/>
-    <col min="31" max="31" width="12.42578125" customWidth="1"/>
+    <col min="30" max="30" width="13.5703125" customWidth="1"/>
+    <col min="31" max="31" width="14" customWidth="1"/>
     <col min="32" max="32" width="16" customWidth="1"/>
     <col min="33" max="33" width="15.85546875" customWidth="1"/>
     <col min="34" max="34" width="14.85546875" customWidth="1"/>
     <col min="35" max="35" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:34">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -911,9 +891,8 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:34">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -923,7 +902,7 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="29" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -998,16 +977,16 @@
       <c r="AB3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AC3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AD3" s="26" t="s">
+      <c r="AD3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AE3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AF3" s="27" t="s">
+      <c r="AF3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AG3" s="2" t="s">
@@ -1016,254 +995,247 @@
       <c r="AH3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AI3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:34" ht="15" customHeight="1">
+      <c r="A4" s="19" t="s">
         <v>35</v>
       </c>
+      <c r="B4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="28"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" s="12"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG4" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH4" s="18"/>
     </row>
-    <row r="4" spans="1:35">
-      <c r="A4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="V4" s="28"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD4" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH4" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI4" s="17"/>
+    <row r="5" spans="1:34" ht="30.75" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="22"/>
+      <c r="K5" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="22"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="V5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="X5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y5" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH5" s="14" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" ht="30.75" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="W5" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="X5" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y5" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z5" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE5" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI5" s="18" t="s">
-        <v>65</v>
-      </c>
+    <row r="6" spans="1:34">
+      <c r="A6" s="19"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
     </row>
-    <row r="6" spans="1:35">
-      <c r="A6" s="9"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-    </row>
-    <row r="7" spans="1:35">
-      <c r="A7" s="9"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="1" t="s">
-        <v>73</v>
-      </c>
+    <row r="7" spans="1:34">
+      <c r="A7" s="19"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:34">
       <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1291,52 +1263,56 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:34">
       <c r="D12" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="Z5:Z7"/>
-    <mergeCell ref="AF4:AF7"/>
-    <mergeCell ref="AG4:AG7"/>
-    <mergeCell ref="AH4:AI4"/>
+  <mergeCells count="40">
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="T5:T7"/>
     <mergeCell ref="X5:X7"/>
     <mergeCell ref="Y5:Y7"/>
-    <mergeCell ref="AC4:AC7"/>
     <mergeCell ref="AA4:AA7"/>
     <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="R4:T5"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="P4:Q5"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="AD5:AD7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="AE4:AE7"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="AF4:AF7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/clients/static/Reporte_diario.xlsx
+++ b/clients/static/Reporte_diario.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26405"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBE91522-F074-436F-9268-0F3242367363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCAEB0D3-D272-49A8-B79C-ABCBD9643E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
   <si>
     <t>REPORTE GENERAL BASES</t>
   </si>
@@ -135,28 +135,70 @@
     <t>AH</t>
   </si>
   <si>
-    <t>LUGAR DE SALIDA</t>
-  </si>
-  <si>
-    <t>AERODROMO</t>
-  </si>
-  <si>
-    <t>CALENDARIO</t>
-  </si>
-  <si>
-    <t>PILOTO</t>
-  </si>
-  <si>
-    <t>MECÁNICO</t>
-  </si>
-  <si>
-    <t>CONDUCTOR</t>
-  </si>
-  <si>
-    <t>AERONAVE MATRICULA</t>
-  </si>
-  <si>
-    <t>HORAS DE VUELO</t>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>AJ</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
+    <t>HORA DE DESPEGUE</t>
+  </si>
+  <si>
+    <t>LUGAR DE DESPEGUE</t>
+  </si>
+  <si>
+    <t>LUGAR DE ATERRIZAJE</t>
+  </si>
+  <si>
+    <t>HORA DE ATERRIZAJE</t>
+  </si>
+  <si>
+    <t>MOTIVO DEL VUELO</t>
+  </si>
+  <si>
+    <t>MODELO DE LA AERONAVE</t>
+  </si>
+  <si>
+    <t>MATRICULA DE LA AERONAVE</t>
+  </si>
+  <si>
+    <t>HORAS DE VUELO PILOTO</t>
+  </si>
+  <si>
+    <t>HORAS DE VUELO COPILOTO</t>
+  </si>
+  <si>
+    <t>ATERRIZAJES</t>
+  </si>
+  <si>
+    <t>ACUATIZAJES</t>
+  </si>
+  <si>
+    <t>HORAS DE VUELO INSTRUCTOR</t>
+  </si>
+  <si>
+    <t>CONTRATO</t>
+  </si>
+  <si>
+    <t>MANTTO Y OTROS</t>
   </si>
   <si>
     <t>HORAS AERONAVE</t>
@@ -189,28 +231,7 @@
     <t>CARGA EXTERNA</t>
   </si>
   <si>
-    <t>CANTIDAD DE ATERRIZAJES</t>
-  </si>
-  <si>
-    <t>CANTIDAD DE AMERIZAJES</t>
-  </si>
-  <si>
     <t>LANZAMIENTO DE AGUA</t>
-  </si>
-  <si>
-    <t>SALIDA</t>
-  </si>
-  <si>
-    <t>LLEGADA</t>
-  </si>
-  <si>
-    <t>DIA</t>
-  </si>
-  <si>
-    <t>CONTRATO</t>
-  </si>
-  <si>
-    <t>MANTTO Y OTROS</t>
   </si>
   <si>
     <t>HORAS DISPONIBLES</t>
@@ -259,16 +280,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -302,7 +315,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -320,21 +333,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -345,18 +343,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -377,20 +366,20 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -410,86 +399,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,11 +568,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFFD761"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -810,509 +876,558 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AH12"/>
+  <dimension ref="A1:AM7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AI4" sqref="AI4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" customWidth="1"/>
-    <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" customWidth="1"/>
-    <col min="16" max="16" width="21" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" customWidth="1"/>
-    <col min="18" max="19" width="15.5703125" customWidth="1"/>
-    <col min="20" max="20" width="17.28515625" customWidth="1"/>
-    <col min="21" max="21" width="18.42578125" customWidth="1"/>
-    <col min="22" max="22" width="21.28515625" customWidth="1"/>
-    <col min="23" max="23" width="21.42578125" customWidth="1"/>
-    <col min="24" max="24" width="20" customWidth="1"/>
-    <col min="25" max="25" width="22.140625" customWidth="1"/>
-    <col min="26" max="26" width="32.42578125" customWidth="1"/>
-    <col min="27" max="27" width="33" customWidth="1"/>
-    <col min="28" max="28" width="30.7109375" customWidth="1"/>
-    <col min="29" max="29" width="15.28515625" customWidth="1"/>
-    <col min="30" max="30" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="30.28515625" customWidth="1"/>
+    <col min="12" max="12" width="33.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="33" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" customWidth="1"/>
+    <col min="23" max="23" width="19" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" customWidth="1"/>
+    <col min="28" max="28" width="12.140625" customWidth="1"/>
+    <col min="29" max="29" width="15.140625" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" customWidth="1"/>
     <col min="31" max="31" width="14" customWidth="1"/>
-    <col min="32" max="32" width="16" customWidth="1"/>
-    <col min="33" max="33" width="15.85546875" customWidth="1"/>
-    <col min="34" max="34" width="14.85546875" customWidth="1"/>
-    <col min="35" max="35" width="15.140625" customWidth="1"/>
+    <col min="32" max="32" width="15" customWidth="1"/>
+    <col min="33" max="33" width="24.85546875" customWidth="1"/>
+    <col min="34" max="34" width="22.85546875" customWidth="1"/>
+    <col min="35" max="35" width="15.5703125" customWidth="1"/>
+    <col min="36" max="36" width="12.140625" customWidth="1"/>
+    <col min="37" max="37" width="14.85546875" customWidth="1"/>
+    <col min="38" max="38" width="13.5703125" customWidth="1"/>
+    <col min="39" max="39" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8" t="s">
+    <row r="1" spans="1:39">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
     </row>
-    <row r="3" spans="1:34">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:39">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="X2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Y2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="Z2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AA2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AB2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AC2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AD2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="AE3" s="10" t="s">
+      <c r="AE2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AF2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AG2" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AH2" s="24" t="s">
         <v>34</v>
       </c>
+      <c r="AI2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ2" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM2" s="24" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" ht="15" customHeight="1">
-      <c r="A4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="23" t="s">
+    <row r="3" spans="1:39" ht="15" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="B3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="C3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="14" t="s">
+      <c r="D3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="E3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="F3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="17" t="s">
+      <c r="G3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="28"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="11" t="s">
+      <c r="H3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="U4" s="12"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="11" t="s">
+      <c r="I3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="14" t="s">
+      <c r="J3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AA4" s="14" t="s">
+      <c r="K3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AB4" s="14" t="s">
+      <c r="L3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AC4" s="17" t="s">
+      <c r="M3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="14" t="s">
+      <c r="N3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AF4" s="14" t="s">
+      <c r="O3" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="AG4" s="17" t="s">
+      <c r="P3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AH4" s="18"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="28"/>
+      <c r="T3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="W3" s="12"/>
+      <c r="X3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM3" s="12"/>
     </row>
-    <row r="5" spans="1:34" ht="30.75" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="R5" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="U5" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="V5" s="14" t="s">
+    <row r="4" spans="1:39">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="W5" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="X5" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y5" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="14" t="s">
+      <c r="W4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="AD5" s="14" t="s">
+      <c r="X4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH5" s="14" t="s">
+      <c r="Y4" s="8" t="s">
         <v>71</v>
       </c>
+      <c r="Z4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM4" s="8" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="6" spans="1:34">
-      <c r="A6" s="19"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
+    <row r="5" spans="1:39">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
     </row>
-    <row r="7" spans="1:34">
-      <c r="A7" s="19"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
+    <row r="6" spans="1:39">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
       <c r="Y7" s="25"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="16"/>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="16"/>
-    </row>
-    <row r="8" spans="1:34">
-      <c r="A8" s="4"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-    </row>
-    <row r="12" spans="1:34">
-      <c r="D12" s="3"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="25"/>
+      <c r="AM7" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="Q5:Q7"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="Y5:Y7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AD5:AD7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AC7"/>
-    <mergeCell ref="AE4:AE7"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="AF4:AF7"/>
+  <mergeCells count="43">
+    <mergeCell ref="AK4:AK6"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AL4:AL6"/>
+    <mergeCell ref="AM4:AM6"/>
+    <mergeCell ref="T3:T6"/>
+    <mergeCell ref="U3:U6"/>
+    <mergeCell ref="P3:Q4"/>
+    <mergeCell ref="R3:S4"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AJ4:AJ6"/>
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="AD4:AD6"/>
+    <mergeCell ref="AE4:AE6"/>
+    <mergeCell ref="AF4:AF6"/>
+    <mergeCell ref="AI3:AI6"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AG6"/>
+    <mergeCell ref="AH3:AH6"/>
+    <mergeCell ref="Y4:Y6"/>
+    <mergeCell ref="Z4:Z6"/>
+    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="AB4:AB6"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="N3:N6"/>
+    <mergeCell ref="O3:O6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/clients/static/Reporte_diario.xlsx
+++ b/clients/static/Reporte_diario.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26426"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCAEB0D3-D272-49A8-B79C-ABCBD9643E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CDA04A9-56B8-49B8-81E0-7FE59B36A750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>REPORTE GENERAL BASES</t>
   </si>
@@ -135,21 +135,6 @@
     <t>AH</t>
   </si>
   <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>AJ</t>
-  </si>
-  <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
     <t>AÑO</t>
   </si>
   <si>
@@ -198,9 +183,6 @@
     <t>CONTRATO</t>
   </si>
   <si>
-    <t>MANTTO Y OTROS</t>
-  </si>
-  <si>
     <t>HORAS AERONAVE</t>
   </si>
   <si>
@@ -216,9 +198,6 @@
     <t>MOTOR 1</t>
   </si>
   <si>
-    <t>MOTOR 2</t>
-  </si>
-  <si>
     <t>NOTA DE OPERACIÓN</t>
   </si>
   <si>
@@ -249,13 +228,13 @@
     <t>TOTAL VUELO</t>
   </si>
   <si>
-    <t>HORA ENCENDIDO</t>
-  </si>
-  <si>
-    <t>HORA DE CORTE</t>
-  </si>
-  <si>
-    <t>TOTAL ENCENDIDO</t>
+    <t>HORA ENCENDIDO (hh:mm:ss)</t>
+  </si>
+  <si>
+    <t>HORA DE CORTE (hh:mm:ss)</t>
+  </si>
+  <si>
+    <t>TOTAL ENCENDIDO (hh:mm:ss)</t>
   </si>
   <si>
     <t>CICLOS</t>
@@ -273,7 +252,7 @@
     <t>MOTIVO</t>
   </si>
   <si>
-    <t>(hh:mm)</t>
+    <t>(hh:mm:ss)</t>
   </si>
 </sst>
 </file>
@@ -315,7 +294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -424,15 +403,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -455,16 +425,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -476,15 +439,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -495,72 +510,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -876,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM7"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AJ14" sqref="AJ14"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -896,31 +850,28 @@
     <col min="13" max="13" width="14.5703125" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
     <col min="15" max="15" width="33" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" customWidth="1"/>
     <col min="20" max="20" width="13.42578125" customWidth="1"/>
     <col min="21" max="21" width="11.7109375" customWidth="1"/>
     <col min="22" max="22" width="15.28515625" customWidth="1"/>
     <col min="23" max="23" width="19" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" customWidth="1"/>
     <col min="25" max="25" width="12.28515625" customWidth="1"/>
     <col min="26" max="26" width="12.5703125" customWidth="1"/>
     <col min="27" max="27" width="14.7109375" customWidth="1"/>
-    <col min="28" max="28" width="12.140625" customWidth="1"/>
-    <col min="29" max="29" width="15.140625" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" customWidth="1"/>
-    <col min="31" max="31" width="14" customWidth="1"/>
-    <col min="32" max="32" width="15" customWidth="1"/>
-    <col min="33" max="33" width="24.85546875" customWidth="1"/>
-    <col min="34" max="34" width="22.85546875" customWidth="1"/>
-    <col min="35" max="35" width="15.5703125" customWidth="1"/>
-    <col min="36" max="36" width="12.140625" customWidth="1"/>
-    <col min="37" max="37" width="14.85546875" customWidth="1"/>
-    <col min="38" max="38" width="13.5703125" customWidth="1"/>
-    <col min="39" max="39" width="14" customWidth="1"/>
+    <col min="28" max="28" width="49.28515625" customWidth="1"/>
+    <col min="29" max="29" width="50.5703125" customWidth="1"/>
+    <col min="30" max="30" width="20.28515625" customWidth="1"/>
+    <col min="31" max="31" width="23.85546875" customWidth="1"/>
+    <col min="32" max="32" width="22.85546875" customWidth="1"/>
+    <col min="33" max="33" width="20" customWidth="1"/>
+    <col min="34" max="34" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:34">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -938,10 +889,10 @@
       <c r="O1" s="2"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="23"/>
+      <c r="S1" s="8"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -957,13 +908,8 @@
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:34">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1009,340 +955,291 @@
       <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="U2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="W2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="X2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="24" t="s">
+      <c r="Y2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="24" t="s">
+      <c r="Z2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="24" t="s">
+      <c r="AA2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="24" t="s">
+      <c r="AB2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="24" t="s">
+      <c r="AC2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="24" t="s">
+      <c r="AD2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="24" t="s">
+      <c r="AE2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="24" t="s">
+      <c r="AF2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="24" t="s">
+      <c r="AG2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="24" t="s">
+      <c r="AH2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" s="24" t="s">
+    </row>
+    <row r="3" spans="1:34" ht="15" customHeight="1">
+      <c r="A3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="24" t="s">
+      <c r="D3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" s="24" t="s">
+      <c r="E3" s="12" t="s">
         <v>39</v>
       </c>
+      <c r="F3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" s="16"/>
+      <c r="V3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" s="19"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH3" s="16"/>
     </row>
-    <row r="3" spans="1:39" ht="15" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" s="28"/>
-      <c r="T3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="W3" s="12"/>
-      <c r="X3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="14" t="s">
+    <row r="4" spans="1:34" ht="15" customHeight="1">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="14" t="s">
+      <c r="U4" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="8" t="s">
+      <c r="V4" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AH3" s="8" t="s">
+      <c r="W4" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AI3" s="8" t="s">
+      <c r="X4" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="AJ3" s="11" t="s">
+      <c r="Y4" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="11" t="s">
+      <c r="Z4" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AM3" s="12"/>
+      <c r="AA4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH4" s="12" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="4" spans="1:39">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z4" s="8" t="s">
+    <row r="5" spans="1:34">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AA4" s="8" t="s">
+      <c r="Q5" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AB4" s="8" t="s">
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AC4" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD4" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF4" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL4" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM4" s="8" t="s">
-        <v>78</v>
-      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
     </row>
-    <row r="5" spans="1:39">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q5" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="9"/>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="9"/>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-    </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:34">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1358,61 +1255,49 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="25"/>
-      <c r="AI7" s="25"/>
-      <c r="AJ7" s="25"/>
-      <c r="AK7" s="25"/>
-      <c r="AL7" s="25"/>
-      <c r="AM7" s="25"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="AK4:AK6"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AL4:AL6"/>
-    <mergeCell ref="AM4:AM6"/>
-    <mergeCell ref="T3:T6"/>
-    <mergeCell ref="U3:U6"/>
-    <mergeCell ref="P3:Q4"/>
-    <mergeCell ref="R3:S4"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AJ4:AJ6"/>
-    <mergeCell ref="AC4:AC6"/>
-    <mergeCell ref="AD4:AD6"/>
-    <mergeCell ref="AE4:AE6"/>
+  <mergeCells count="38">
     <mergeCell ref="AF4:AF6"/>
-    <mergeCell ref="AI3:AI6"/>
+    <mergeCell ref="R3:R6"/>
+    <mergeCell ref="S3:S6"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="V3:X3"/>
     <mergeCell ref="V4:V6"/>
     <mergeCell ref="W4:W6"/>
     <mergeCell ref="X4:X6"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AG6"/>
-    <mergeCell ref="AH3:AH6"/>
-    <mergeCell ref="Y4:Y6"/>
-    <mergeCell ref="Z4:Z6"/>
-    <mergeCell ref="AA4:AA6"/>
-    <mergeCell ref="AB4:AB6"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AB6"/>
+    <mergeCell ref="AC3:AC6"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AE4:AE6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
     <mergeCell ref="M3:M6"/>
     <mergeCell ref="N3:N6"/>
     <mergeCell ref="O3:O6"/>
@@ -1422,12 +1307,14 @@
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="K3:K6"/>
     <mergeCell ref="L3:L6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="P3:Q4"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AG4:AG6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="Y4:Y6"/>
+    <mergeCell ref="Z4:Z6"/>
+    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="AD3:AD6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/clients/static/Reporte_diario.xlsx
+++ b/clients/static/Reporte_diario.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26502"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CDA04A9-56B8-49B8-81E0-7FE59B36A750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C23A1EE5-4A56-4927-817A-EA5622399D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>REPORTE GENERAL BASES</t>
   </si>
@@ -135,13 +135,22 @@
     <t>AH</t>
   </si>
   <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>AJ</t>
+  </si>
+  <si>
     <t>AÑO</t>
   </si>
   <si>
     <t>MES</t>
   </si>
   <si>
-    <t>DIA</t>
+    <t>DIA DE CARGA</t>
+  </si>
+  <si>
+    <t>DIA DE VUELO</t>
   </si>
   <si>
     <t>HORA DE DESPEGUE</t>
@@ -180,7 +189,7 @@
     <t>HORAS DE VUELO INSTRUCTOR</t>
   </si>
   <si>
-    <t>CONTRATO</t>
+    <t>TIEMPO EN SERVICIO</t>
   </si>
   <si>
     <t>HORAS AERONAVE</t>
@@ -189,6 +198,9 @@
     <t>CICLOS MOTOR</t>
   </si>
   <si>
+    <t>PASAJEROS</t>
+  </si>
+  <si>
     <t>CUMPLIMIENTO MTTO</t>
   </si>
   <si>
@@ -219,10 +231,10 @@
     <t>CUMPLE PROXIMA INSPECCIÓN</t>
   </si>
   <si>
-    <t>DESPEGUE</t>
-  </si>
-  <si>
-    <t>ATERRIZAJE</t>
+    <t>DESPEGUE (lts)</t>
+  </si>
+  <si>
+    <t>ATERRIZAJE (lts)</t>
   </si>
   <si>
     <t>TOTAL VUELO</t>
@@ -240,19 +252,16 @@
     <t>CICLOS</t>
   </si>
   <si>
-    <t>PESO</t>
-  </si>
-  <si>
-    <t>CANTIDAD</t>
-  </si>
-  <si>
-    <t>TIEMPO</t>
+    <t>PESO (kg)</t>
+  </si>
+  <si>
+    <t>CANTIDAD (lts)</t>
+  </si>
+  <si>
+    <t>TIEMPO (hh:mm:ss)</t>
   </si>
   <si>
     <t>MOTIVO</t>
-  </si>
-  <si>
-    <t>(hh:mm:ss)</t>
   </si>
 </sst>
 </file>
@@ -439,24 +448,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -483,37 +483,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -830,34 +830,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="30.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
     <col min="12" max="12" width="33.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="33" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="30.42578125" customWidth="1"/>
+    <col min="14" max="15" width="15.42578125" customWidth="1"/>
+    <col min="16" max="16" width="34.28515625" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" customWidth="1"/>
     <col min="18" max="18" width="23.28515625" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" customWidth="1"/>
     <col min="20" max="20" width="13.42578125" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" customWidth="1"/>
-    <col min="22" max="22" width="15.28515625" customWidth="1"/>
-    <col min="23" max="23" width="19" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" customWidth="1"/>
+    <col min="22" max="22" width="18.42578125" customWidth="1"/>
+    <col min="23" max="23" width="22.140625" customWidth="1"/>
     <col min="24" max="24" width="14.28515625" customWidth="1"/>
     <col min="25" max="25" width="12.28515625" customWidth="1"/>
     <col min="26" max="26" width="12.5703125" customWidth="1"/>
@@ -869,9 +870,11 @@
     <col min="32" max="32" width="22.85546875" customWidth="1"/>
     <col min="33" max="33" width="20" customWidth="1"/>
     <col min="34" max="34" width="16.5703125" customWidth="1"/>
+    <col min="35" max="35" width="17" customWidth="1"/>
+    <col min="36" max="36" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:36">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -887,14 +890,14 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="1"/>
+      <c r="P1" s="2"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="1"/>
+      <c r="S1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="8"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -908,8 +911,10 @@
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:36">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -955,291 +960,307 @@
       <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AB2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AD2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="AE2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AF2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AG2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AH2" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="AI2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" ht="15" customHeight="1">
-      <c r="A3" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="23" t="s">
+    <row r="3" spans="1:36" ht="15" customHeight="1">
+      <c r="A3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="G3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="H3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="I3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="J3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="K3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="L3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="M3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="26" t="s">
+      <c r="N3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="12" t="s">
+      <c r="O3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="P3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="Q3" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="U3" s="16"/>
-      <c r="V3" s="15" t="s">
+      <c r="R3" s="22"/>
+      <c r="S3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="W3" s="19"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="20" t="s">
+      <c r="T3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="12" t="s">
+      <c r="U3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AD3" s="12" t="s">
+      <c r="W3" s="13"/>
+      <c r="X3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AE3" s="15" t="s">
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="15" t="s">
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AH3" s="16"/>
+      <c r="AE3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ3" s="13"/>
     </row>
-    <row r="4" spans="1:34" ht="15" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="X4" s="12" t="s">
+    <row r="4" spans="1:36" ht="15" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="W4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="Z4" s="12" t="s">
+      <c r="X4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="Y4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="12" t="s">
+      <c r="Z4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="AF4" s="12" t="s">
+      <c r="AA4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="AG4" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH4" s="12" t="s">
+      <c r="AB4" s="9" t="s">
         <v>71</v>
       </c>
+      <c r="AC4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="5" spans="1:34">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
+    <row r="5" spans="1:36">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
     </row>
-    <row r="6" spans="1:34">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="14"/>
+    <row r="6" spans="1:36">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:36">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1255,49 +1276,52 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="AF4:AF6"/>
-    <mergeCell ref="R3:R6"/>
-    <mergeCell ref="S3:S6"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AB3:AB6"/>
-    <mergeCell ref="AC3:AC6"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AE4:AE6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
+  <mergeCells count="42">
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AE3:AE6"/>
+    <mergeCell ref="AF3:AF6"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AI4:AI6"/>
+    <mergeCell ref="AJ4:AJ6"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AG4:AG6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="Y4:Y6"/>
+    <mergeCell ref="Z4:Z6"/>
+    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="AD3:AD6"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="T3:T6"/>
+    <mergeCell ref="U3:U6"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="M3:M6"/>
     <mergeCell ref="N3:N6"/>
     <mergeCell ref="O3:O6"/>
@@ -1307,14 +1331,17 @@
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="K3:K6"/>
     <mergeCell ref="L3:L6"/>
-    <mergeCell ref="P3:Q4"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AG4:AG6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="Y4:Y6"/>
-    <mergeCell ref="Z4:Z6"/>
-    <mergeCell ref="AA4:AA6"/>
-    <mergeCell ref="AD3:AD6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="S3:S6"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="AB4:AB6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/clients/static/Reporte_diario.xlsx
+++ b/clients/static/Reporte_diario.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26502"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C23A1EE5-4A56-4927-817A-EA5622399D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2944E100-03EE-484D-BE57-B6750DA5F717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>REPORTE GENERAL BASES</t>
   </si>
@@ -141,121 +141,124 @@
     <t>AJ</t>
   </si>
   <si>
+    <t>FECHA DE CARGA</t>
+  </si>
+  <si>
+    <t>FECHA DE VUELO</t>
+  </si>
+  <si>
+    <t>HORA DE DESPEGUE</t>
+  </si>
+  <si>
+    <t>LUGAR DE DESPEGUE</t>
+  </si>
+  <si>
+    <t>LUGAR DE ATERRIZAJE</t>
+  </si>
+  <si>
+    <t>HORA DE ATERRIZAJE</t>
+  </si>
+  <si>
+    <t>MOTIVO DEL VUELO</t>
+  </si>
+  <si>
+    <t>MODELO DE LA AERONAVE</t>
+  </si>
+  <si>
+    <t>MATRICULA DE LA AERONAVE</t>
+  </si>
+  <si>
+    <t>HORAS DE VUELO PILOTO</t>
+  </si>
+  <si>
+    <t>HORAS DE VUELO COPILOTO</t>
+  </si>
+  <si>
+    <t>ATERRIZAJES</t>
+  </si>
+  <si>
+    <t>ACUATIZAJES</t>
+  </si>
+  <si>
+    <t>HORAS DE VUELO INSTRUCTOR</t>
+  </si>
+  <si>
+    <t>TIEMPO EN SERVICIO</t>
+  </si>
+  <si>
+    <t>HORAS AERONAVE</t>
+  </si>
+  <si>
+    <t>CICLOS MOTOR</t>
+  </si>
+  <si>
+    <t>PASAJEROS</t>
+  </si>
+  <si>
+    <t>CUMPLIMIENTO MTTO</t>
+  </si>
+  <si>
+    <t>COMBUSTIBLE</t>
+  </si>
+  <si>
+    <t>MOTOR 1</t>
+  </si>
+  <si>
+    <t>NOTA DE OPERACIÓN</t>
+  </si>
+  <si>
+    <t>NOTA DE MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>CARGA EXTERNA</t>
+  </si>
+  <si>
+    <t>LANZAMIENTO DE AGUA</t>
+  </si>
+  <si>
+    <t>HORAS DISPONIBLES</t>
+  </si>
+  <si>
+    <t>CUMPLE PROXIMA INSPECCIÓN</t>
+  </si>
+  <si>
+    <t>DESPEGUE (lts)</t>
+  </si>
+  <si>
+    <t>ATERRIZAJE (lts)</t>
+  </si>
+  <si>
+    <t>TOTAL VUELO</t>
+  </si>
+  <si>
+    <t>HORA ENCENDIDO (hh:mm:ss)</t>
+  </si>
+  <si>
+    <t>HORA DE CORTE (hh:mm:ss)</t>
+  </si>
+  <si>
+    <t>TOTAL ENCENDIDO (hh:mm:ss)</t>
+  </si>
+  <si>
+    <t>CICLOS</t>
+  </si>
+  <si>
+    <t>PESO (kg)</t>
+  </si>
+  <si>
+    <t>CANTIDAD (lts)</t>
+  </si>
+  <si>
     <t>AÑO</t>
   </si>
   <si>
     <t>MES</t>
   </si>
   <si>
-    <t>DIA DE CARGA</t>
-  </si>
-  <si>
-    <t>DIA DE VUELO</t>
-  </si>
-  <si>
-    <t>HORA DE DESPEGUE</t>
-  </si>
-  <si>
-    <t>LUGAR DE DESPEGUE</t>
-  </si>
-  <si>
-    <t>LUGAR DE ATERRIZAJE</t>
-  </si>
-  <si>
-    <t>HORA DE ATERRIZAJE</t>
-  </si>
-  <si>
-    <t>MOTIVO DEL VUELO</t>
-  </si>
-  <si>
-    <t>MODELO DE LA AERONAVE</t>
-  </si>
-  <si>
-    <t>MATRICULA DE LA AERONAVE</t>
-  </si>
-  <si>
-    <t>HORAS DE VUELO PILOTO</t>
-  </si>
-  <si>
-    <t>HORAS DE VUELO COPILOTO</t>
-  </si>
-  <si>
-    <t>ATERRIZAJES</t>
-  </si>
-  <si>
-    <t>ACUATIZAJES</t>
-  </si>
-  <si>
-    <t>HORAS DE VUELO INSTRUCTOR</t>
-  </si>
-  <si>
-    <t>TIEMPO EN SERVICIO</t>
-  </si>
-  <si>
-    <t>HORAS AERONAVE</t>
-  </si>
-  <si>
-    <t>CICLOS MOTOR</t>
-  </si>
-  <si>
-    <t>PASAJEROS</t>
-  </si>
-  <si>
-    <t>CUMPLIMIENTO MTTO</t>
-  </si>
-  <si>
-    <t>COMBUSTIBLE</t>
-  </si>
-  <si>
-    <t>MOTOR 1</t>
-  </si>
-  <si>
-    <t>NOTA DE OPERACIÓN</t>
-  </si>
-  <si>
-    <t>NOTA DE MANTENIMIENTO</t>
-  </si>
-  <si>
-    <t>CLIENTE</t>
-  </si>
-  <si>
-    <t>CARGA EXTERNA</t>
-  </si>
-  <si>
-    <t>LANZAMIENTO DE AGUA</t>
-  </si>
-  <si>
-    <t>HORAS DISPONIBLES</t>
-  </si>
-  <si>
-    <t>CUMPLE PROXIMA INSPECCIÓN</t>
-  </si>
-  <si>
-    <t>DESPEGUE (lts)</t>
-  </si>
-  <si>
-    <t>ATERRIZAJE (lts)</t>
-  </si>
-  <si>
-    <t>TOTAL VUELO</t>
-  </si>
-  <si>
-    <t>HORA ENCENDIDO (hh:mm:ss)</t>
-  </si>
-  <si>
-    <t>HORA DE CORTE (hh:mm:ss)</t>
-  </si>
-  <si>
-    <t>TOTAL ENCENDIDO (hh:mm:ss)</t>
-  </si>
-  <si>
-    <t>CICLOS</t>
-  </si>
-  <si>
-    <t>PESO (kg)</t>
-  </si>
-  <si>
-    <t>CANTIDAD (lts)</t>
+    <t>DIA</t>
   </si>
   <si>
     <t>TIEMPO (hh:mm:ss)</t>
@@ -303,7 +306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -444,11 +447,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -469,6 +490,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -478,43 +502,55 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -834,7 +870,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -918,13 +954,13 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1025,240 +1061,242 @@
       </c>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="M3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="N3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="O3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="P3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="Q3" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="R3" s="19"/>
+      <c r="S3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="T3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="22"/>
-      <c r="S3" s="9" t="s">
+      <c r="U3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="V3" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="W3" s="17"/>
+      <c r="X3" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W3" s="13"/>
-      <c r="X3" s="12" t="s">
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="15" t="s">
+      <c r="AE3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="9" t="s">
+      <c r="AF3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AG3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AG3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ3" s="13"/>
+      <c r="AJ3" s="17"/>
     </row>
     <row r="4" spans="1:36" ht="15" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="9" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="X4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="Y4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="Z4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="AA4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="AB4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AC4" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AH4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="9" t="s">
+      <c r="AI4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="AH4" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI4" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ4" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:36">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="9" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
+      <c r="R5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
     </row>
     <row r="6" spans="1:36">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2"/>
@@ -1299,17 +1337,23 @@
       <c r="AJ7" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="AC4:AC6"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AE3:AE6"/>
-    <mergeCell ref="AF3:AF6"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AI4:AI6"/>
-    <mergeCell ref="AJ4:AJ6"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AG4:AG6"/>
-    <mergeCell ref="AH4:AH6"/>
+  <mergeCells count="43">
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="N3:N6"/>
+    <mergeCell ref="O3:O6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="L3:L6"/>
     <mergeCell ref="Y4:Y6"/>
     <mergeCell ref="Z4:Z6"/>
     <mergeCell ref="AA4:AA6"/>
@@ -1322,25 +1366,20 @@
     <mergeCell ref="U3:U6"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="M3:M6"/>
-    <mergeCell ref="N3:N6"/>
-    <mergeCell ref="O3:O6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="D3:D6"/>
     <mergeCell ref="S3:S6"/>
     <mergeCell ref="V4:V6"/>
     <mergeCell ref="W4:W6"/>
     <mergeCell ref="X4:X6"/>
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AE3:AE6"/>
+    <mergeCell ref="AF3:AF6"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AI4:AI6"/>
+    <mergeCell ref="AJ4:AJ6"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AG4:AG6"/>
+    <mergeCell ref="AH4:AH6"/>
     <mergeCell ref="AB4:AB6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
